--- a/data/trans_dic/P7_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P7_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con más de 1 persona</t>
+          <t>Hogares con más de 1 persona (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>89,62%</t>
+          <t>92,49%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>92,02%</t>
+          <t>91,43%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>90,26%</t>
+          <t>89,4%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>91,0%</t>
+          <t>91,25%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>90,39%</t>
+          <t>93,31%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>86,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>85,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>84,57%</t>
+          <t>87,23%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>82,27%</t>
+          <t>85,62%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>78,69%</t>
+          <t>81,46%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>87,72%</t>
+          <t>81,54%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>88,3%</t>
+          <t>82,5%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>87,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>86,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>83,91%</t>
+          <t>89,67%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>88,21%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>85,05%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>85,87%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>86,94%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>84,89; 92,86</t>
+          <t>85,37; 96,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>88,05; 95,14</t>
+          <t>85,38; 95,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,12; 93,12</t>
+          <t>84,71; 93,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>87,13; 93,81</t>
+          <t>87,58; 94,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>86,24; 93,61</t>
+          <t>88,04; 96,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>82,25; 89,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>80,75; 89,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>80,33; 88,37</t>
+          <t>80,01; 92,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>77,71; 86,03</t>
+          <t>78,99; 90,91</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>71,8; 84,43</t>
+          <t>76,01; 86,19</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>84,66; 90,17</t>
+          <t>77,19; 85,78</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>85,13; 91,12</t>
+          <t>75,03; 88,5</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>84,42; 89,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>83,18; 88,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>79,63; 87,51</t>
+          <t>84,85; 93,25</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>83,65; 92,3</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>81,62; 88,12</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>82,96; 88,66</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>82,09; 91,25</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94,21%</t>
+          <t>94,1%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>94,48%</t>
+          <t>93,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>93,25%</t>
+          <t>92,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>92,3%</t>
+          <t>91,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>92,73%</t>
+          <t>92,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>93,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>92,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>94,3%</t>
+          <t>91,89%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>94,3%</t>
+          <t>93,2%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>93,86%</t>
+          <t>93,71%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>93,66%</t>
+          <t>94,06%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>93,42%</t>
+          <t>91,61%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>93,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>93,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>93,24%</t>
+          <t>92,94%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>93,17%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>93,1%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>92,98%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>92,16%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>92,3; 95,88</t>
+          <t>90,75; 96,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>92,21; 96,11</t>
+          <t>90,2; 95,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>91,2; 95,03</t>
+          <t>89,35; 94,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>89,88; 94,05</t>
+          <t>89,18; 93,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>90,01; 95,06</t>
+          <t>89,75; 95,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>90,92; 94,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>89,79; 94,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>92,38; 95,7</t>
+          <t>86,58; 94,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>92,2; 95,73</t>
+          <t>90,38; 95,21</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>91,18; 95,9</t>
+          <t>91,57; 95,42</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>92,21; 94,94</t>
+          <t>92,21; 95,74</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>91,92; 94,72</t>
+          <t>88,57; 94,23</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>92,35; 94,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>91,89; 94,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>91,4; 94,7</t>
+          <t>90,02; 94,9</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>90,95; 94,76</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>91,2; 94,6</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>91,28; 94,36</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>90,13; 94,13</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>91,48%</t>
+          <t>92,28%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>91,45%</t>
+          <t>90,96%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>91,95%</t>
+          <t>91,99%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>90,92%</t>
+          <t>90,94%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>87,99%</t>
+          <t>90,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>92,16%</t>
+          <t>96,93%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>91,57%</t>
+          <t>96,27%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>92,35%</t>
+          <t>92,28%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>93,39%</t>
+          <t>91,56%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,46%</t>
+          <t>92,26%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>92,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>94,79%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>93,71%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>92,14%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
           <t>91,26%</t>
         </is>
       </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>90,29%</t>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>91,35%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1302,114 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>87,47; 94,4</t>
+          <t>86,17; 95,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,73; 94,28</t>
+          <t>85,64; 94,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88,16; 94,6</t>
+          <t>87,64; 94,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>87,35; 93,53</t>
+          <t>87,6; 93,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>83,34; 92,17</t>
+          <t>85,73; 93,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>92,81; 97,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>92,9; 97,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>88,58; 94,22</t>
+          <t>94,05; 98,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>88,47; 93,62</t>
+          <t>93,72; 97,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>86,47; 95,63</t>
+          <t>88,64; 94,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>91,06; 95,18</t>
+          <t>88,85; 93,81</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>91,13; 95,32</t>
+          <t>89,23; 94,72</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>89,88; 93,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>89,1; 93,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>85,99; 92,59</t>
+          <t>91,84; 96,83</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>90,43; 95,72</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>89,75; 94,04</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>89,14; 93,03</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>88,4; 93,63</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>92,55%</t>
+          <t>92,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>93,05%</t>
+          <t>94,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>92,19%</t>
+          <t>92,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>91,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>91,1%</t>
+          <t>90,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>92,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>91,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>91,07%</t>
+          <t>91,72%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>90,27%</t>
+          <t>89,68%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>88,2%</t>
+          <t>93,11%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>92,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>92,36%</t>
+          <t>89,92%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>91,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>90,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>89,65%</t>
+          <t>91,92%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>91,96%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>92,98%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>90,25%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,2313 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,96; 93,98</t>
+          <t>89,69; 93,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91,3; 94,55</t>
+          <t>92,0; 96,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90,54; 93,42</t>
+          <t>89,26; 95,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>89,84; 93,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,97; 92,77</t>
+          <t>84,15; 93,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,54; 93,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,04; 93,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>89,51; 92,44</t>
+          <t>89,8; 93,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>88,54; 91,62</t>
+          <t>86,58; 91,95</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>84,89; 90,66</t>
+          <t>89,83; 95,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>91,26; 93,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>91,25; 93,49</t>
+          <t>85,24; 93,22</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,46; 92,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>89,74; 91,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>87,78; 91,17</t>
+          <t>90,37; 93,19</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>90,03; 93,51</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>90,78; 94,85</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>86,55; 92,91</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>92,54%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>92,95%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>91,98%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>91,5%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>91,54%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>92,2%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>91,6%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>91,02%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>90,09%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>89,69%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>92,37%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>92,26%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>91,49%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>90,78%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>90,59%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>90,77; 93,95</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>91,12; 94,33</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>90,23; 93,28</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>89,83; 93,0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>88,94; 93,34</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>90,62; 93,54</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>89,88; 93,06</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>89,58; 92,48</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>88,53; 91,54</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>87,4; 91,45</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>91,26; 93,4</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>91,05; 93,26</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>90,32; 92,52</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>89,69; 91,85</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>88,94; 91,83</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con más de 1 persona (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>259.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>324.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>427.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>583.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>209477</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>310137</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>471430</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>661535</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>417448</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>228275</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>361055</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>520215</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>732795</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>528654</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>437752</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>671192</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>991645</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1394331</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>946101</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>193357; 218722</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>289627; 324892</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>446679; 491182</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>634936; 684100</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>393872; 433918</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>209369; 242605</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>333123; 383386</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>485399; 550409</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>693711; 770919</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>480788; 567092</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>414232; 455252</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>636475; 702332</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>951628; 1027367</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>1347086; 1439495</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>893283; 993005</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>292.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>424.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>530.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>347.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>524.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>648.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>357.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>532.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>639.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>948.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>1178.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>648.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>612475</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>866364</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1114425</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1490371</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>992447</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>657107</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>932010</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1155847</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1418301</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>992603</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1269582</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1798373</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>2270272</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>2908672</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>1985051</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>590636; 626769</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>839053; 890709</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1076791; 1143195</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1444898; 1521035</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>960740; 1018920</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>619114; 678229</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>903829; 952111</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1129383; 1176976</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1390356; 1443599</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>959595; 1020976</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1229677; 1296265</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1755482; 1829103</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>2223987; 2306811</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>2855353; 2951707</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>1941356; 2027597</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>332.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>424.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>292.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>422.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>538.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>348.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>417.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>522.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>754.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>962.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>601.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>420511</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>650886</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>776004</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>994386</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>748611</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>515386</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>740509</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>869015</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1065124</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>827620</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>935898</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1391396</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>1645019</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>2059510</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>1576231</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>392674; 437400</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>612837; 677909</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>739235; 799381</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>957851; 1024920</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>710232; 777017</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>500047; 524273</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>720854; 753517</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>834712; 890637</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1033619; 1091354</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>800521; 849688</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>906796; 956082</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1342721; 1421180</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>1602219; 1678872</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>2011763; 2099413</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>1525452; 1615611</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>741.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>437.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>286.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>850.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>466.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>320.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>314.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>1591.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>903.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>606.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>605.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1947866</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1372173</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>796349</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>983157</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1916734</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1256438</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>710619</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>885338</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>3864601</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>2628611</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1506969</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>1868495</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1896341; 1985478</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1340778; 1400097</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>765477; 817765</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>913700; 1020110</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1876639; 1950504</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1213052; 1288204</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>685597; 730386</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>839351; 917893</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>3799460; 3917893</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>2573378; 2672814</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>1471231; 1537220</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>1791977; 1923538</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1248.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1065.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1235.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1213.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>949.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1479.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1236.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1500.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1510.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1167.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2727.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>2301.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>2735.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>2723.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>2116.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3190330</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3199559</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3158207</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3146293</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3141664</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3317503</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3290012</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3255697</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3216220</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3234214</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>6507833</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>6489571</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>6413904</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>6362514</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>6375878</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3129405; 3239025</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3136818; 3247236</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3098211; 3202832</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3088855; 3198144</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3052449; 3203522</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3260793; 3365818</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3228277; 3342595</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>3204297; 3308082</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3160384; 3268023</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3151646; 3297853</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>6430108; 6580385</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>6404664; 6560200</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>6331551; 6485985</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>6286293; 6437530</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>6259844; 6463244</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
